--- a/game/assets/i18n/quest_main.xlsx
+++ b/game/assets/i18n/quest_main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\aube\game\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA91F46C-B7B4-460C-9913-1F68992242B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E608A6A-68F9-4642-9C46-B2CCB2519893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
